--- a/conditionDecode.xlsx
+++ b/conditionDecode.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\MetaViewer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RyanT\Documents\GitHub\MetaViewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="189">
   <si>
     <t>Burden Percent &gt;=</t>
   </si>
@@ -499,6 +500,99 @@
   </si>
   <si>
     <t>['TABLE', ['k', 'v', ['s', 'n'], ['s', '']]]</t>
+  </si>
+  <si>
+    <t>changeToState:</t>
+  </si>
+  <si>
+    <t>embeddedNavRoute:**ASCIIBLOB**</t>
+  </si>
+  <si>
+    <t>chatBoxCommand:STRING</t>
+  </si>
+  <si>
+    <t>[callState:STRING; returnToState:STRING]</t>
+  </si>
+  <si>
+    <t>[metaExpression:STRING]</t>
+  </si>
+  <si>
+    <t>[chatExpression:STRING]</t>
+  </si>
+  <si>
+    <t>[changeToState:STRING; radius:DOUBLE; time:DOUBLE]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[optionToGet:STRING; recordToVariable:STRING]</t>
+  </si>
+  <si>
+    <t>[optionToSet:STRING; setOptionTo:STRING]</t>
+  </si>
+  <si>
+    <t>[nameOfMetaView:STRING; viewXMLData:*XML*ASCIIBLOB*XML*]</t>
+  </si>
+  <si>
+    <t>[actionID:INT; actionValue:*NAV*RECURSABLE CONDITION TABLE*NAV*]</t>
+  </si>
+  <si>
+    <t>[nameOfViewToDestroy ]</t>
+  </si>
+  <si>
+    <t>[conditionID:INT; conditionValue:**RECURSABLE CONDITION TABLE**]</t>
+  </si>
+  <si>
+    <t>[itemName:STRING ; itemCount:INT]</t>
+  </si>
+  <si>
+    <t>[monsterName:STRING; monsterCount:INT; detectRadius:DOUBLE]</t>
+  </si>
+  <si>
+    <t>[priorityLevel:INT; monsterCount:INT; detectRadius:DOUBLE]</t>
+  </si>
+  <si>
+    <t>[detectRadius:DOUBLE]</t>
+  </si>
+  <si>
+    <t>[spellID:INT; secondsLeft:INT]</t>
+  </si>
+  <si>
+    <t>[distanceFromPoint:DOUBLE]</t>
+  </si>
+  <si>
+    <t>[metaExpressionToEvaluate]</t>
+  </si>
+  <si>
+    <t>[regularExpression:STRING; colorStringToMatch:STRING]</t>
+  </si>
+  <si>
+    <t>packSlots:INT</t>
+  </si>
+  <si>
+    <t>secondsInState:INT</t>
+  </si>
+  <si>
+    <t>chatMessageToMatch:STRING</t>
+  </si>
+  <si>
+    <t>landBlockID:INT</t>
+  </si>
+  <si>
+    <t>landCellID:INT</t>
+  </si>
+  <si>
+    <t>secondsInStateNoReset:INT</t>
+  </si>
+  <si>
+    <t>burdenPercent:INT</t>
+  </si>
+  <si>
+    <t>: "</t>
+  </si>
+  <si>
+    <t>",</t>
   </si>
 </sst>
 </file>
@@ -851,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14C6FC4-6A52-4287-97F3-9E56CE588933}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,14 +957,15 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="76" customWidth="1"/>
     <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -896,7 +991,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -922,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -947,8 +1042,11 @@
       <c r="I3" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -961,6 +1059,9 @@
       <c r="D4" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="E4" t="s">
+        <v>171</v>
+      </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
@@ -971,8 +1072,11 @@
         <v>53</v>
       </c>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -985,6 +1089,9 @@
       <c r="D5" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -997,8 +1104,11 @@
       <c r="I5" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1009,6 +1119,9 @@
         <v>53</v>
       </c>
       <c r="D6" s="1"/>
+      <c r="E6" t="s">
+        <v>182</v>
+      </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
@@ -1021,8 +1134,11 @@
       <c r="I6" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1035,6 +1151,9 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
+      <c r="E7" t="s">
+        <v>180</v>
+      </c>
       <c r="F7" t="s">
         <v>38</v>
       </c>
@@ -1047,8 +1166,11 @@
       <c r="I7" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1061,6 +1183,9 @@
       <c r="D8" s="1">
         <v>99999</v>
       </c>
+      <c r="E8" t="s">
+        <v>181</v>
+      </c>
       <c r="F8" t="s">
         <v>40</v>
       </c>
@@ -1074,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1099,8 +1224,11 @@
       <c r="I9" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1125,8 +1253,11 @@
       <c r="I10" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1151,8 +1282,11 @@
       <c r="I11" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1177,8 +1311,11 @@
       <c r="I12" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1191,6 +1328,9 @@
       <c r="D13" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="E13" t="s">
+        <v>172</v>
+      </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
@@ -1203,8 +1343,11 @@
       <c r="I13" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1217,6 +1360,9 @@
       <c r="D14" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="E14" t="s">
+        <v>172</v>
+      </c>
       <c r="F14" t="s">
         <v>26</v>
       </c>
@@ -1229,8 +1375,11 @@
       <c r="I14" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1243,6 +1392,9 @@
       <c r="D15" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
       <c r="F15" t="s">
         <v>28</v>
       </c>
@@ -1255,8 +1407,11 @@
       <c r="I15" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1269,6 +1424,9 @@
       <c r="D16" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="E16" t="s">
+        <v>174</v>
+      </c>
       <c r="F16" t="s">
         <v>30</v>
       </c>
@@ -1281,8 +1439,11 @@
       <c r="I16" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1307,8 +1468,11 @@
       <c r="I17" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1321,8 +1485,11 @@
       <c r="D18" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1335,8 +1502,11 @@
       <c r="D19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1349,8 +1519,11 @@
       <c r="D20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1364,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1378,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1391,8 +1564,11 @@
       <c r="D23" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1405,8 +1581,11 @@
       <c r="D24" s="1">
         <v>99999</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1419,8 +1598,11 @@
       <c r="D25" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1433,8 +1615,11 @@
       <c r="D26" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1447,8 +1632,11 @@
       <c r="D27" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1461,8 +1649,11 @@
       <c r="D28" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1474,6 +1665,9 @@
       </c>
       <c r="D29" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="E29" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1482,6 +1676,312 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E6AECA-075C-4F7A-8C72-7F5EA06815C6}">
+  <dimension ref="D9:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" t="str">
+        <f>D9&amp;E9&amp;F9&amp;G9</f>
+        <v>0: "None",</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ref="H10:H24" si="0">D10&amp;E10&amp;F10&amp;G10</f>
+        <v>1: "Set Meta State",</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>2: "Chat Command",</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>3: "All",</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>4: "Load Embedded Nav Route",</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>5: "Call Meta State",</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>6: "Return From Call",</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>7: "Expression Action",</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>8: "Chat Expression",</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>9: "Set Watchdog",</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>10: "Clear Watchdog",</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>11: "Get VT Option",</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>12: "Set VT Option",</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>13: "Create View",</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>14: "Destroy View",</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>15: "Destroy All Views",</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531A2356-58E8-4ECB-A9CA-87ABD7CA8D8F}">
   <dimension ref="A1:A85"/>
   <sheetViews>
